--- a/balance.xlsx
+++ b/balance.xlsx
@@ -11,6 +11,14 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>dooj</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,11 +358,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/balance.xlsx
+++ b/balance.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="balance" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="balance" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>dooj</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,19 +45,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -354,18 +342,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="9.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="12.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="9.7109375" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="5.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="13.28515625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="12.140625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="15.5703125" bestFit="1" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>doj</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>probation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>current_date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>deactivated_on</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>allotment</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>cycle</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>prorata</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>accrual</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>workingdays</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>expected_result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>43922</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Joining_None</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/balance.xlsx
+++ b/balance.xlsx
@@ -1,33 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="balance" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="configuration" sheetId="2" r:id="rId1"/>
+    <sheet name="balance" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Shameer</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Shameer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ex: Give complete URL</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>doj</t>
+  </si>
+  <si>
+    <t>probation</t>
+  </si>
+  <si>
+    <t>current_date</t>
+  </si>
+  <si>
+    <t>deactivated_on</t>
+  </si>
+  <si>
+    <t>allotment</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>prorata</t>
+  </si>
+  <si>
+    <t>accrual</t>
+  </si>
+  <si>
+    <t>workingdays</t>
+  </si>
+  <si>
+    <t>expected_result</t>
+  </si>
+  <si>
+    <t>Joining_None</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>https://automation.qa.darwinbox.io</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -42,17 +148,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -342,92 +457,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="10.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="9.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="12.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="14.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="9.7109375" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="5.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="13.28515625" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="12.140625" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="15.5703125" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>doj</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>probation</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>current_date</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>deactivated_on</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>allotment</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>cycle</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>prorata</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>accrual</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>workingdays</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>expected_result</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>43922</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Joining_None</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
         <v>9</v>
       </c>
     </row>

--- a/balance.xlsx
+++ b/balance.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="2" r:id="rId1"/>
     <sheet name="balance" sheetId="1" r:id="rId2"/>
+    <sheet name="leave_policy" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>doj</t>
   </si>
@@ -84,17 +85,92 @@
     <t>Joining_None</t>
   </si>
   <si>
-    <t>instance</t>
-  </si>
-  <si>
-    <t>https://automation.qa.darwinbox.io</t>
+    <t>group_company</t>
+  </si>
+  <si>
+    <t>hourly</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>multiple_allotment</t>
+  </si>
+  <si>
+    <t>carry_forward</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>remaining_carryforward</t>
+  </si>
+  <si>
+    <t>carry_forward_lapse</t>
+  </si>
+  <si>
+    <t>carry_forward_amount</t>
+  </si>
+  <si>
+    <t>Leave Balance</t>
+  </si>
+  <si>
+    <t>Sameer1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a test leave </t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Joining_Full</t>
+  </si>
+  <si>
+    <t>EOM</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>automation6dotted</t>
+  </si>
+  <si>
+    <t>Dbox@123</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://automation6.qa.darwinbox.io</t>
+  </si>
+  <si>
+    <t>leave_name</t>
+  </si>
+  <si>
+    <t>encash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +199,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,10 +221,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -458,34 +528,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -493,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,4 +641,122 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/balance.xlsx
+++ b/balance.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="142">
   <si>
     <t>doj</t>
   </si>
@@ -118,24 +118,12 @@
     <t>carry_forward_amount</t>
   </si>
   <si>
-    <t>Leave Balance</t>
-  </si>
-  <si>
-    <t>Sameer1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a test leave </t>
-  </si>
-  <si>
     <t>Feb</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Joining_Full</t>
-  </si>
-  <si>
     <t>EOM</t>
   </si>
   <si>
@@ -164,6 +152,330 @@
   </si>
   <si>
     <t>encash</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Tenure Leave Balance</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Jan</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Feb</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Mar</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Apr</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-May</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Jun</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Jul</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Aug</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Sep</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Oct</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Nov</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Dec</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Jan</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Feb</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Mar</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Apr</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-May</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Jun</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Jul</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Aug</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Sep</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Oct</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Nov</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Dec</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Jan</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Feb</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Mar</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Apr</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-May</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Jun</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Jul</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Aug</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Sep</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Oct</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Nov</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Dec</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Jan</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Feb</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Mar</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Apr</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-May</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Jun</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Jul</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Aug</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Sep</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Oct</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Nov</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Dec</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Jan, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Feb, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Mar, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Apr, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-May, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Jun, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Jul, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Aug, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Sep, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Oct, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Nov, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jan, cfwd-Dec, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Jan, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Feb, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Mar, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Apr, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-May, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Jun, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Jul, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Aug, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Sep, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Oct, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Nov, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Feb, cfwd-Dec, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Jan, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Feb, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Mar, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Apr, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-May, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Jun, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Jul, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Aug, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Sep, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Oct, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Nov, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Apr, cfwd-Dec, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Jan, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Feb, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Mar, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Apr, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-May, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Jun, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Jul, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Aug, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Sep, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Oct, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Nov, MA, WD</t>
+  </si>
+  <si>
+    <t>Cycle-Jul, cfwd-Dec, MA, WD</t>
+  </si>
+  <si>
+    <t>Basic Tenure Balance</t>
   </si>
 </sst>
 </file>
@@ -543,24 +855,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -645,35 +957,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -712,48 +1025,4024 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="str">
+        <f>CONCATENATE("Cycle-Jul", ", cfwd-",S2, ", MA",", WD")</f>
+        <v>Cycle-Jul, cfwd-Jan, MA, WD</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R13" si="0">CONCATENATE("Cycle-Jul", ", cfwd-",S3, ",MA")</f>
+        <v>Cycle-Jul, cfwd-Feb,MA</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="0"/>
+        <v>Cycle-Jul, cfwd-Mar,MA</v>
+      </c>
+      <c r="S4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>Cycle-Jul, cfwd-Apr,MA</v>
+      </c>
+      <c r="S5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v>Cycle-Jul, cfwd-May,MA</v>
+      </c>
+      <c r="S6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>Cycle-Jul, cfwd-Jun,MA</v>
+      </c>
+      <c r="S7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="0"/>
+        <v>Cycle-Jul, cfwd-Jul,MA</v>
+      </c>
+      <c r="S8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>Cycle-Jul, cfwd-Aug,MA</v>
+      </c>
+      <c r="S9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>Cycle-Jul, cfwd-Sep,MA</v>
+      </c>
+      <c r="S10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="0"/>
+        <v>Cycle-Jul, cfwd-Oct,MA</v>
+      </c>
+      <c r="S11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v>Cycle-Jul, cfwd-Nov,MA</v>
+      </c>
+      <c r="S12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="0"/>
+        <v>Cycle-Jul, cfwd-Dec,MA</v>
+      </c>
+      <c r="S13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" t="s">
         <v>37</v>
       </c>
-      <c r="N2" t="s">
-        <v>29</v>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39" t="s">
+        <v>33</v>
+      </c>
+      <c r="N39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="M40" t="s">
+        <v>33</v>
+      </c>
+      <c r="N40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+      <c r="M42" t="s">
+        <v>33</v>
+      </c>
+      <c r="N42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+      <c r="M43" t="s">
+        <v>33</v>
+      </c>
+      <c r="N43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="M44" t="s">
+        <v>33</v>
+      </c>
+      <c r="N44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
+      <c r="M45" t="s">
+        <v>33</v>
+      </c>
+      <c r="N45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46" t="s">
+        <v>33</v>
+      </c>
+      <c r="N46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47" t="s">
+        <v>33</v>
+      </c>
+      <c r="N47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48">
+        <v>5</v>
+      </c>
+      <c r="M48" t="s">
+        <v>33</v>
+      </c>
+      <c r="N48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+      <c r="M49" t="s">
+        <v>33</v>
+      </c>
+      <c r="N49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50">
+        <v>5</v>
+      </c>
+      <c r="M50" t="s">
+        <v>33</v>
+      </c>
+      <c r="N50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+      <c r="M51" t="s">
+        <v>33</v>
+      </c>
+      <c r="N51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52">
+        <v>5</v>
+      </c>
+      <c r="M52" t="s">
+        <v>33</v>
+      </c>
+      <c r="N52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53" t="s">
+        <v>33</v>
+      </c>
+      <c r="N53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+      <c r="M54" t="s">
+        <v>33</v>
+      </c>
+      <c r="N54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55">
+        <v>5</v>
+      </c>
+      <c r="M55" t="s">
+        <v>33</v>
+      </c>
+      <c r="N55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56" t="s">
+        <v>33</v>
+      </c>
+      <c r="N56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="M57" t="s">
+        <v>33</v>
+      </c>
+      <c r="N57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58">
+        <v>5</v>
+      </c>
+      <c r="M58" t="s">
+        <v>33</v>
+      </c>
+      <c r="N58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59">
+        <v>5</v>
+      </c>
+      <c r="M59" t="s">
+        <v>33</v>
+      </c>
+      <c r="N59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60">
+        <v>5</v>
+      </c>
+      <c r="M60" t="s">
+        <v>33</v>
+      </c>
+      <c r="N60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61">
+        <v>5</v>
+      </c>
+      <c r="M61" t="s">
+        <v>33</v>
+      </c>
+      <c r="N61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62">
+        <v>5</v>
+      </c>
+      <c r="M62" t="s">
+        <v>33</v>
+      </c>
+      <c r="N62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
+      <c r="M63" t="s">
+        <v>33</v>
+      </c>
+      <c r="N63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64" t="s">
+        <v>33</v>
+      </c>
+      <c r="N64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65" t="s">
+        <v>33</v>
+      </c>
+      <c r="N65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66">
+        <v>5</v>
+      </c>
+      <c r="M66" t="s">
+        <v>33</v>
+      </c>
+      <c r="N66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67">
+        <v>5</v>
+      </c>
+      <c r="M67" t="s">
+        <v>33</v>
+      </c>
+      <c r="N67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68">
+        <v>5</v>
+      </c>
+      <c r="M68" t="s">
+        <v>33</v>
+      </c>
+      <c r="N68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
+      </c>
+      <c r="M69" t="s">
+        <v>33</v>
+      </c>
+      <c r="N69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70">
+        <v>5</v>
+      </c>
+      <c r="M70" t="s">
+        <v>33</v>
+      </c>
+      <c r="N70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71">
+        <v>5</v>
+      </c>
+      <c r="M71" t="s">
+        <v>33</v>
+      </c>
+      <c r="N71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72" t="s">
+        <v>33</v>
+      </c>
+      <c r="N72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73">
+        <v>5</v>
+      </c>
+      <c r="M73" t="s">
+        <v>33</v>
+      </c>
+      <c r="N73" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74">
+        <v>5</v>
+      </c>
+      <c r="M74" t="s">
+        <v>33</v>
+      </c>
+      <c r="N74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75" t="s">
+        <v>33</v>
+      </c>
+      <c r="N75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76">
+        <v>5</v>
+      </c>
+      <c r="M76" t="s">
+        <v>33</v>
+      </c>
+      <c r="N76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77">
+        <v>5</v>
+      </c>
+      <c r="M77" t="s">
+        <v>33</v>
+      </c>
+      <c r="N77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78">
+        <v>5</v>
+      </c>
+      <c r="M78" t="s">
+        <v>33</v>
+      </c>
+      <c r="N78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79">
+        <v>5</v>
+      </c>
+      <c r="M79" t="s">
+        <v>33</v>
+      </c>
+      <c r="N79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80">
+        <v>5</v>
+      </c>
+      <c r="M80" t="s">
+        <v>33</v>
+      </c>
+      <c r="N80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81">
+        <v>5</v>
+      </c>
+      <c r="M81" t="s">
+        <v>33</v>
+      </c>
+      <c r="N81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82">
+        <v>5</v>
+      </c>
+      <c r="M82" t="s">
+        <v>33</v>
+      </c>
+      <c r="N82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83">
+        <v>5</v>
+      </c>
+      <c r="M83" t="s">
+        <v>33</v>
+      </c>
+      <c r="N83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" t="s">
+        <v>17</v>
+      </c>
+      <c r="L84">
+        <v>5</v>
+      </c>
+      <c r="M84" t="s">
+        <v>33</v>
+      </c>
+      <c r="N84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85">
+        <v>5</v>
+      </c>
+      <c r="M85" t="s">
+        <v>33</v>
+      </c>
+      <c r="N85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86">
+        <v>5</v>
+      </c>
+      <c r="M86" t="s">
+        <v>33</v>
+      </c>
+      <c r="N86" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87">
+        <v>5</v>
+      </c>
+      <c r="M87" t="s">
+        <v>33</v>
+      </c>
+      <c r="N87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>141</v>
+      </c>
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>39</v>
+      </c>
+      <c r="G88" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88" t="s">
+        <v>33</v>
+      </c>
+      <c r="N88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>141</v>
+      </c>
+      <c r="B89" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89" t="s">
+        <v>33</v>
+      </c>
+      <c r="N89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>39</v>
+      </c>
+      <c r="G90" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90">
+        <v>5</v>
+      </c>
+      <c r="M90" t="s">
+        <v>33</v>
+      </c>
+      <c r="N90" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91">
+        <v>5</v>
+      </c>
+      <c r="M91" t="s">
+        <v>33</v>
+      </c>
+      <c r="N91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92">
+        <v>5</v>
+      </c>
+      <c r="M92" t="s">
+        <v>33</v>
+      </c>
+      <c r="N92" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93">
+        <v>5</v>
+      </c>
+      <c r="M93" t="s">
+        <v>33</v>
+      </c>
+      <c r="N93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" t="s">
+        <v>17</v>
+      </c>
+      <c r="L94">
+        <v>5</v>
+      </c>
+      <c r="M94" t="s">
+        <v>33</v>
+      </c>
+      <c r="N94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" t="s">
+        <v>17</v>
+      </c>
+      <c r="L95">
+        <v>5</v>
+      </c>
+      <c r="M95" t="s">
+        <v>33</v>
+      </c>
+      <c r="N95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" t="s">
+        <v>17</v>
+      </c>
+      <c r="L96">
+        <v>5</v>
+      </c>
+      <c r="M96" t="s">
+        <v>33</v>
+      </c>
+      <c r="N96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97">
+        <v>5</v>
+      </c>
+      <c r="M97" t="s">
+        <v>33</v>
+      </c>
+      <c r="N97" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
